--- a/biology/Botanique/Narva_maantee/Narva_maantee.xlsx
+++ b/biology/Botanique/Narva_maantee/Narva_maantee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La route de Narva (estonien : Narva maantee, Narva mnt) est l'une des principales artères de Tallinn en Estonie.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue de Narva part de la place Viru, traverse Kadriorg, où elle croise la rue Pirita tee, puis remonte la pente au sud de la place Laulu, où elle atteint Lasnamäe, longe le rempart et atteint la limite de Tallinn derrière le pont d'Iru. 
 Elle est prolongée par la rue Vana-Narva (et). 
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
